--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.021</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.001</v>
+        <v>-0.298</v>
       </c>
       <c r="D4" t="n">
-        <v>-7800</v>
+        <v>-1519.05</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.023</v>
+        <v>0.014</v>
       </c>
       <c r="D5" t="n">
-        <v>-200</v>
+        <v>-41.67</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.866</v>
       </c>
       <c r="C6" t="n">
-        <v>6.367</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="n">
-        <v>102.64</v>
+        <v>32.59</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.396</v>
+        <v>0.23</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>15.847</v>
+        <v>13.834</v>
       </c>
       <c r="D8" t="n">
-        <v>44.34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.195</v>
       </c>
       <c r="C9" t="n">
-        <v>5.485</v>
+        <v>3.196</v>
       </c>
       <c r="D9" t="n">
-        <v>149.2</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>14.834</v>
       </c>
       <c r="C10" t="n">
-        <v>57.806</v>
+        <v>27.373</v>
       </c>
       <c r="D10" t="n">
-        <v>220.38</v>
+        <v>84.53</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.053</v>
       </c>
       <c r="C11" t="n">
-        <v>0.311</v>
+        <v>0.114</v>
       </c>
       <c r="D11" t="n">
-        <v>401.61</v>
+        <v>115.09</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>-0.011</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.425</v>
+        <v>-0.865</v>
       </c>
       <c r="D12" t="n">
-        <v>3414.49</v>
+        <v>7763.64</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.851</v>
       </c>
       <c r="C13" t="n">
-        <v>7.603</v>
+        <v>5.232</v>
       </c>
       <c r="D13" t="n">
-        <v>78.98</v>
+        <v>35.86</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.63586799800396</v>
+        <v>2.628643047241938</v>
       </c>
       <c r="C4" t="n">
-        <v>3.136604025959969</v>
+        <v>3.661414089657011</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>39.29</v>
       </c>
       <c r="E4" t="n">
-        <v>0.853593420918036</v>
+        <v>0.8913478733480076</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2403641962941441</v>
+        <v>2.251291841056853</v>
       </c>
       <c r="G4" t="n">
-        <v>-71.84</v>
+        <v>152.57</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.170464585587217</v>
+        <v>8.930650143142755</v>
       </c>
       <c r="C6" t="n">
-        <v>5.709364190063244</v>
+        <v>6.856482673172771</v>
       </c>
       <c r="D6" t="n">
-        <v>-20.38</v>
+        <v>-23.23</v>
       </c>
       <c r="E6" t="n">
-        <v>2.12646116587676</v>
+        <v>1.859932791882311</v>
       </c>
       <c r="F6" t="n">
-        <v>1.683912662014241</v>
+        <v>1.763085405984513</v>
       </c>
       <c r="G6" t="n">
-        <v>-20.81</v>
+        <v>-5.21</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.021</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.298</v>
+        <v>-0.04</v>
       </c>
       <c r="D4" t="n">
-        <v>-1519.05</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.014</v>
+        <v>-0.011</v>
       </c>
       <c r="D5" t="n">
-        <v>-41.67</v>
+        <v>-157.89</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.866</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>3.8</v>
+        <v>2.783</v>
       </c>
       <c r="D6" t="n">
-        <v>32.59</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.192</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.23</v>
+        <v>0.209</v>
       </c>
       <c r="D7" t="n">
-        <v>19.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>13.834</v>
+        <v>10.15</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.195</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>3.196</v>
+        <v>2.595</v>
       </c>
       <c r="D9" t="n">
-        <v>45.6</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.834</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>27.373</v>
+        <v>12.108</v>
       </c>
       <c r="D10" t="n">
-        <v>84.53</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.114</v>
+        <v>0.05</v>
       </c>
       <c r="D11" t="n">
-        <v>115.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.011</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.865</v>
+        <v>-0.024</v>
       </c>
       <c r="D12" t="n">
-        <v>7763.64</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.851</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>5.232</v>
+        <v>3.48</v>
       </c>
       <c r="D13" t="n">
-        <v>35.86</v>
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.628643047241938</v>
+        <v>3.118995797066462</v>
       </c>
       <c r="C4" t="n">
-        <v>3.661414089657011</v>
+        <v>4.30486475853693</v>
       </c>
       <c r="D4" t="n">
-        <v>39.29</v>
+        <v>38.02</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8913478733480076</v>
+        <v>0.8004054532324917</v>
       </c>
       <c r="F4" t="n">
-        <v>2.251291841056853</v>
+        <v>1.832308720701971</v>
       </c>
       <c r="G4" t="n">
-        <v>152.57</v>
+        <v>128.92</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>2.954</v>
       </c>
       <c r="C5" t="n">
-        <v>1.678</v>
+        <v>2.122</v>
       </c>
       <c r="D5" t="n">
-        <v>-43.2</v>
+        <v>-28.17</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.930650143142755</v>
+        <v>3.424048752562029</v>
       </c>
       <c r="C6" t="n">
-        <v>6.856482673172771</v>
+        <v>2.766219934581893</v>
       </c>
       <c r="D6" t="n">
-        <v>-23.23</v>
+        <v>-19.21</v>
       </c>
       <c r="E6" t="n">
-        <v>1.859932791882311</v>
+        <v>0.2208001256259919</v>
       </c>
       <c r="F6" t="n">
-        <v>1.763085405984513</v>
+        <v>0.7548747236065048</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.21</v>
+        <v>241.88</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
